--- a/data/data_Template.xlsx
+++ b/data/data_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31F022D4-DB2E-4035-AA03-6111FA3808C9}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F7E2AD8-9FD8-4E63-8F0A-1EBB3183DAE1}"/>
   <bookViews>
-    <workbookView xWindow="3852" yWindow="4476" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>time</t>
   </si>
@@ -49,262 +49,160 @@
     <t>ang</t>
   </si>
   <si>
+    <t>T_A</t>
+  </si>
+  <si>
+    <t>T_C</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
+  <si>
+    <t>l/min</t>
+  </si>
+  <si>
+    <t>Ambient temperature</t>
+  </si>
+  <si>
+    <t>Coolant temperature</t>
+  </si>
+  <si>
+    <t>Volume flow</t>
+  </si>
+  <si>
+    <t>discrete time vector</t>
+  </si>
+  <si>
+    <t>vehicle velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface/road elevation </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>17.08.2023</t>
+  </si>
+  <si>
+    <t>Dr. Pascal A. Schirmer</t>
+  </si>
+  <si>
+    <t>v.0.0</t>
+  </si>
+  <si>
+    <t>data_Template</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t>Pascal Schirmer</t>
+  </si>
+  <si>
+    <t>Initial implementation of the data template</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Relative Humidty</t>
+  </si>
+  <si>
+    <t>Average outside humidty</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>T_O</t>
+  </si>
+  <si>
+    <t>Oil temperature</t>
+  </si>
+  <si>
+    <t>Oil temperatuer</t>
+  </si>
+  <si>
+    <t>Volume flow water</t>
+  </si>
+  <si>
+    <t>Volume flow oil</t>
+  </si>
+  <si>
+    <t>Vol_C</t>
+  </si>
+  <si>
+    <t>Vol_O</t>
+  </si>
+  <si>
+    <t>v.0.1</t>
+  </si>
+  <si>
+    <t>17.02.2024</t>
+  </si>
+  <si>
+    <t>Review for python implementation</t>
+  </si>
+  <si>
     <t>V_DC</t>
   </si>
   <si>
-    <t>T_A</t>
-  </si>
-  <si>
-    <t>T_C</t>
-  </si>
-  <si>
-    <t>I_AC</t>
-  </si>
-  <si>
-    <t>I_DC</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>M_i</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>velocity</t>
-  </si>
-  <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>torque</t>
-  </si>
-  <si>
-    <t>rotational speed</t>
-  </si>
-  <si>
-    <t>sec</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>rad</t>
-  </si>
-  <si>
-    <t>Nm</t>
-  </si>
-  <si>
-    <t>1/s</t>
+    <t>Battery Voltage</t>
+  </si>
+  <si>
+    <t>voltage of the high voltage battery</t>
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>p.u.</t>
-  </si>
-  <si>
-    <t>°C</t>
-  </si>
-  <si>
-    <t>l/min</t>
-  </si>
-  <si>
-    <t>HV voltage</t>
-  </si>
-  <si>
-    <t>AC current</t>
-  </si>
-  <si>
-    <t>DC current</t>
-  </si>
-  <si>
-    <t>Modulation index</t>
-  </si>
-  <si>
-    <t>Power factor</t>
-  </si>
-  <si>
-    <t>Ambient temperature</t>
-  </si>
-  <si>
-    <t>Coolant temperature</t>
-  </si>
-  <si>
-    <t>Volume flow</t>
-  </si>
-  <si>
-    <t>discrete time vector</t>
-  </si>
-  <si>
-    <t>vehicle velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface/road elevation </t>
-  </si>
-  <si>
-    <t>Torque electric machine</t>
-  </si>
-  <si>
-    <t>Rotational speed electric machine</t>
-  </si>
-  <si>
-    <t>HV battery voltage</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>17.08.2023</t>
-  </si>
-  <si>
-    <t>Dr. Pascal A. Schirmer</t>
-  </si>
-  <si>
-    <t>v.0.0</t>
-  </si>
-  <si>
-    <t>data_Template</t>
-  </si>
-  <si>
-    <t>Changes</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Lead</t>
-  </si>
-  <si>
-    <t>Pascal Schirmer</t>
-  </si>
-  <si>
-    <t>Initial implementation of the data template</t>
-  </si>
-  <si>
-    <t>RH</t>
-  </si>
-  <si>
-    <t>Relative Humidty</t>
-  </si>
-  <si>
-    <t>Average outside humidty</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Exicter current</t>
-  </si>
-  <si>
-    <t>AC voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC rms phase current front machine </t>
-  </si>
-  <si>
-    <t>I_AC_f</t>
-  </si>
-  <si>
-    <t>Inverter input current front</t>
-  </si>
-  <si>
-    <t>I_DC_f</t>
-  </si>
-  <si>
-    <t>I_E_f</t>
-  </si>
-  <si>
-    <t>Exictation current SSM front</t>
-  </si>
-  <si>
-    <t>V_AC_f</t>
-  </si>
-  <si>
-    <t>AC rms phase voltage electric machine front</t>
-  </si>
-  <si>
-    <t>M_i_f</t>
-  </si>
-  <si>
-    <t>Modulation index inverter front</t>
-  </si>
-  <si>
-    <t>PF_f</t>
-  </si>
-  <si>
-    <t>power factor of the electric machine front</t>
-  </si>
-  <si>
-    <t>T_O</t>
-  </si>
-  <si>
-    <t>Oil temperature</t>
-  </si>
-  <si>
-    <t>Oil temperatuer</t>
-  </si>
-  <si>
-    <t>Volume flow water</t>
-  </si>
-  <si>
-    <t>Volume flow oil</t>
-  </si>
-  <si>
-    <t>Vol_C</t>
-  </si>
-  <si>
-    <t>Vol_O</t>
-  </si>
-  <si>
-    <t>v.0.1</t>
-  </si>
-  <si>
-    <t>17.02.2024</t>
-  </si>
-  <si>
-    <t>Review for python implementation</t>
-  </si>
-  <si>
-    <t>I_E</t>
-  </si>
-  <si>
-    <t>V_AC</t>
   </si>
 </sst>
 </file>
@@ -410,6 +308,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,54 +627,54 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -780,19 +682,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,19 +702,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,10 +740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79313389-28E8-48D1-8DB5-F8E39DA0616B}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,19 +755,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -873,16 +775,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -893,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -910,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -924,16 +826,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -941,16 +843,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -958,16 +860,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -975,16 +877,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -992,16 +894,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1009,16 +911,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1026,152 +928,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1182,22 +948,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFF6A9-0AB4-489E-B943-720610BD2247}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="11" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1206,52 +971,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
